--- a/src/test/testdaten_insert_aussertariflicher_verguetungsbestandteil/Mitarbeiter.xlsx
+++ b/src/test/testdaten_insert_aussertariflicher_verguetungsbestandteil/Mitarbeiter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_aussertariflicher_verguetungsbestandteil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7FE3D-9F7E-49CC-9A94-93DD6EAC0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DEB6C-959A-48B2-BF21-AE7A82EC799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>11 111 111 111</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Abkuerzung Abteilung</t>
   </si>
   <si>
-    <t>M100001</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
     <t>ja/nein</t>
   </si>
   <si>
+    <t>A5-1</t>
+  </si>
+  <si>
     <t>KKH</t>
   </si>
   <si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Ausland</t>
+  </si>
+  <si>
+    <t>M100002</t>
   </si>
 </sst>
 </file>
@@ -785,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +811,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -816,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1064,9 @@
       <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
@@ -1089,7 +1094,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>52</v>
@@ -1121,7 +1126,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>48</v>
@@ -1161,7 +1166,7 @@
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>52</v>
@@ -1169,7 +1174,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>52</v>
@@ -1251,7 +1256,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
